--- a/biology/Zoologie/Cambridgea_quadromaculata/Cambridgea_quadromaculata.xlsx
+++ b/biology/Zoologie/Cambridgea_quadromaculata/Cambridgea_quadromaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambridgea quadromaculata est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambridgea quadromaculata est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,1 mm de long sur 5,5 mm de large, son abdomen 6,0 mm de long. La carapace de la femelle paratype mesure 7,1 mm de long sur 5,5 mm de large, son abdomen 10,5 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,1 mm de long sur 5,5 mm de large, son abdomen 6,0 mm de long. La carapace de la femelle paratype mesure 7,1 mm de long sur 5,5 mm de large, son abdomen 10,5 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Blest &amp; Taylor, 1995 : Cambridgea quadromaculata n. sp. (Araneae, Stiphidiidae): a large New Zealand spider from wet, shaded habitats. New Zealand Journal of Zoology, vol. 22, p. 351-356.</t>
         </is>
